--- a/DummyHitter.xlsx
+++ b/DummyHitter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i20461\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB37C448-E35E-472D-AD9A-8251CF88486E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="6" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="RHPLHH" sheetId="4" r:id="rId5"/>
     <sheet name="DummyHitter" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -278,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1126,11 +1127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,21 +1183,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,19 +1380,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="D2" s="2">
-        <v>832</v>
+        <v>935</v>
       </c>
       <c r="E2" s="2">
-        <v>730</v>
+        <v>827</v>
       </c>
       <c r="F2" s="2">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2">
         <v>8</v>
@@ -1406,16 +1407,16 @@
         <v>2</v>
       </c>
       <c r="L2" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="P2" s="2">
         <v>3</v>
@@ -1424,10 +1425,10 @@
         <v>2</v>
       </c>
       <c r="R2" s="2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="S2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -1436,96 +1437,96 @@
         <v>0</v>
       </c>
       <c r="V2" s="2">
-        <v>9.3150683999999997E-2</v>
+        <v>9.7944376999999999E-2</v>
       </c>
       <c r="W2" s="2">
-        <v>4.3269229999999999E-2</v>
+        <v>3.9572191999999999E-2</v>
       </c>
       <c r="X2" s="2">
-        <v>0.46634615299999999</v>
+        <v>0.46737967899999999</v>
       </c>
       <c r="Y2" s="2">
-        <v>9.2783505000000002E-2</v>
+        <v>8.4668192000000003E-2</v>
       </c>
       <c r="Z2" s="2">
-        <v>9.3150683999999997E-2</v>
+        <v>9.7944376999999999E-2</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.13878080400000001</v>
+        <v>0.13924050599999999</v>
       </c>
       <c r="AB2" s="2">
-        <v>0.112328767</v>
+        <v>0.114873035</v>
       </c>
       <c r="AC2" s="2">
-        <v>0.25110957099999998</v>
+        <v>0.254113541</v>
       </c>
       <c r="AD2" s="2">
-        <v>1.9178082999999999E-2</v>
+        <v>1.6928657999999999E-2</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.192982456</v>
+        <v>0.202564102</v>
       </c>
       <c r="AF2" s="2">
-        <v>-39.357824565760403</v>
+        <v>-43.105244061167099</v>
       </c>
       <c r="AG2" s="2">
-        <v>-138.24992290317201</v>
+        <v>-153.99824438076701</v>
       </c>
       <c r="AH2" s="2">
-        <v>0.11918326922427799</v>
+        <v>0.11967585749401199</v>
       </c>
       <c r="AI2" s="2">
-        <v>-32.278356555413801</v>
+        <v>-31.9962151050009</v>
       </c>
       <c r="AJ2" s="2">
-        <v>4.0199999999999996</v>
+        <v>4.2962962960000004</v>
       </c>
       <c r="AK2" s="2">
-        <v>0.17161716099999999</v>
+        <v>0.178160919</v>
       </c>
       <c r="AL2" s="2">
-        <v>0.66336633599999995</v>
+        <v>0.66666666600000002</v>
       </c>
       <c r="AM2" s="2">
-        <v>0.16501650100000001</v>
+        <v>0.15517241300000001</v>
       </c>
       <c r="AN2" s="2">
-        <v>0.12</v>
+        <v>0.111111111</v>
       </c>
       <c r="AO2" s="2">
-        <v>0.04</v>
+        <v>3.7037037000000002E-2</v>
       </c>
       <c r="AP2" s="2">
-        <v>3.9800994999999999E-2</v>
+        <v>3.8793103000000002E-2</v>
       </c>
       <c r="AQ2" s="2">
-        <v>0.10784313700000001</v>
+        <v>0.1</v>
       </c>
       <c r="AR2" s="2">
-        <v>0.25190000000000001</v>
+        <v>0.2467</v>
       </c>
       <c r="AS2" s="2">
-        <v>0.41980000000000001</v>
+        <v>0.4148</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.32840000000000003</v>
+        <v>0.33839999999999998</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.32350000000000001</v>
+        <v>0.31879999999999997</v>
       </c>
       <c r="AV2" s="2">
-        <v>0.56789999999999996</v>
+        <v>0.5655</v>
       </c>
       <c r="AW2" s="2">
-        <v>0.1086</v>
+        <v>0.1157</v>
       </c>
       <c r="AX2">
         <f>G2/$D$2</f>
-        <v>6.9711538461538464E-2</v>
+        <v>7.5935828877005354E-2</v>
       </c>
       <c r="AY2">
         <f t="shared" ref="AY2:BA2" si="0">H2/$D$2</f>
-        <v>9.6153846153846159E-3</v>
+        <v>8.5561497326203211E-3</v>
       </c>
       <c r="AZ2">
         <f t="shared" si="0"/>
@@ -1533,19 +1534,19 @@
       </c>
       <c r="BA2">
         <f t="shared" si="0"/>
-        <v>2.403846153846154E-3</v>
+        <v>2.1390374331550803E-3</v>
       </c>
       <c r="BB2">
         <f>M2/D2</f>
-        <v>4.3269230769230768E-2</v>
+        <v>3.9572192513368985E-2</v>
       </c>
       <c r="BC2">
         <f>O2/D2</f>
-        <v>0.46634615384615385</v>
+        <v>0.46737967914438505</v>
       </c>
       <c r="BD2">
         <f>1-(SUM(AX2:BC2))</f>
-        <v>0.40865384615384615</v>
+        <v>0.4064171122994652</v>
       </c>
     </row>
   </sheetData>
@@ -1556,11 +1557,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,43 +1744,43 @@
         <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>1778</v>
+        <v>1883</v>
       </c>
       <c r="D2" s="2">
-        <v>3013</v>
+        <v>3188</v>
       </c>
       <c r="E2" s="2">
-        <v>2645</v>
+        <v>2803</v>
       </c>
       <c r="F2" s="2">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="G2" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="H2" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="2">
         <v>4</v>
       </c>
       <c r="J2" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M2" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>1198</v>
+        <v>1284</v>
       </c>
       <c r="P2" s="2">
         <v>7</v>
@@ -1788,10 +1789,10 @@
         <v>9</v>
       </c>
       <c r="R2" s="2">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="S2" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -1800,116 +1801,116 @@
         <v>0</v>
       </c>
       <c r="V2" s="2">
-        <v>0.12930056700000001</v>
+        <v>0.12879058099999999</v>
       </c>
       <c r="W2" s="2">
-        <v>2.8874875000000001E-2</v>
+        <v>2.7603513E-2</v>
       </c>
       <c r="X2" s="2">
-        <v>0.39761035500000003</v>
+        <v>0.40276035100000002</v>
       </c>
       <c r="Y2" s="2">
-        <v>7.2621035E-2</v>
+        <v>6.8535824999999995E-2</v>
       </c>
       <c r="Z2" s="2">
-        <v>0.12930056700000001</v>
+        <v>0.12879058099999999</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.158660844</v>
+        <v>0.156862745</v>
       </c>
       <c r="AB2" s="2">
-        <v>0.16824196499999999</v>
+        <v>0.167320727</v>
       </c>
       <c r="AC2" s="2">
-        <v>0.32690280900000002</v>
+        <v>0.32418347199999997</v>
       </c>
       <c r="AD2" s="2">
-        <v>3.8941398000000002E-2</v>
+        <v>3.8530146000000001E-2</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.227997227</v>
+        <v>0.22919418699999999</v>
       </c>
       <c r="AF2" s="2">
-        <v>-74.441730188571</v>
+        <v>-80.910666096283407</v>
       </c>
       <c r="AG2" s="2">
-        <v>-432.81992427482498</v>
+        <v>-459.64216565646097</v>
       </c>
       <c r="AH2" s="2">
-        <v>0.14668577456144599</v>
+        <v>0.145287055021141</v>
       </c>
       <c r="AI2" s="2">
-        <v>-14.8397327694864</v>
+        <v>-15.8274558652202</v>
       </c>
       <c r="AJ2" s="2">
-        <v>2.7905405399999998</v>
+        <v>2.7749196139999999</v>
       </c>
       <c r="AK2" s="2">
-        <v>0.17011834300000001</v>
+        <v>0.17207334199999999</v>
       </c>
       <c r="AL2" s="2">
-        <v>0.61094674500000001</v>
+        <v>0.60860366700000001</v>
       </c>
       <c r="AM2" s="2">
-        <v>0.21893491100000001</v>
+        <v>0.21932299</v>
       </c>
       <c r="AN2" s="2">
-        <v>0.10135135100000001</v>
+        <v>0.10932475799999999</v>
       </c>
       <c r="AO2" s="2">
-        <v>4.3918918000000001E-2</v>
+        <v>4.5016077000000002E-2</v>
       </c>
       <c r="AP2" s="2">
-        <v>4.3583535E-2</v>
+        <v>4.1714947000000002E-2</v>
       </c>
       <c r="AQ2" s="2">
-        <v>7.5880758000000006E-2</v>
+        <v>7.6726342000000003E-2</v>
       </c>
       <c r="AR2" s="2">
-        <v>0.28120000000000001</v>
+        <v>0.27750000000000002</v>
       </c>
       <c r="AS2" s="2">
-        <v>0.40620000000000001</v>
+        <v>0.40849999999999997</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.31259999999999999</v>
+        <v>0.314</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.32190000000000002</v>
+        <v>0.32229999999999998</v>
       </c>
       <c r="AV2" s="2">
-        <v>0.50670000000000004</v>
+        <v>0.50409999999999999</v>
       </c>
       <c r="AW2" s="2">
-        <v>0.1714</v>
+        <v>0.1736</v>
       </c>
       <c r="AX2">
         <f>G2/$D$2</f>
-        <v>8.9279787587122475E-2</v>
+        <v>8.9397741530740274E-2</v>
       </c>
       <c r="AY2">
         <f>H2/$D$2</f>
-        <v>1.8586126783936275E-2</v>
+        <v>1.8193224592220829E-2</v>
       </c>
       <c r="AZ2">
-        <f t="shared" ref="AY2:BA2" si="0">I2/$D$2</f>
-        <v>1.3275804845668769E-3</v>
+        <f t="shared" ref="AZ2:BA2" si="0">I2/$D$2</f>
+        <v>1.2547051442910915E-3</v>
       </c>
       <c r="BA2">
         <f t="shared" si="0"/>
-        <v>4.3146365748423501E-3</v>
+        <v>4.3914680050188204E-3</v>
       </c>
       <c r="BB2">
         <f>M2/D2</f>
-        <v>2.8874875539329572E-2</v>
+        <v>2.7603513174404015E-2</v>
       </c>
       <c r="BC2">
         <f>O2/D2</f>
-        <v>0.39761035512777965</v>
+        <v>0.40276035131744042</v>
       </c>
       <c r="BD2">
         <f>1-(SUM(AX2:BC2))</f>
-        <v>0.4600066379024228</v>
+        <v>0.45639899623588454</v>
       </c>
     </row>
   </sheetData>
@@ -1919,11 +1920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="A1:AW2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,55 +2107,55 @@
         <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>4344</v>
+        <v>4615</v>
       </c>
       <c r="D2" s="2">
-        <v>8033</v>
+        <v>8499</v>
       </c>
       <c r="E2" s="2">
-        <v>7084</v>
+        <v>7498</v>
       </c>
       <c r="F2" s="2">
-        <v>846</v>
+        <v>891</v>
       </c>
       <c r="G2" s="2">
-        <v>683</v>
+        <v>714</v>
       </c>
       <c r="H2" s="2">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I2" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="M2" s="2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>3141</v>
+        <v>3338</v>
       </c>
       <c r="P2" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R2" s="2">
-        <v>699</v>
+        <v>738</v>
       </c>
       <c r="S2" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -2163,116 +2164,116 @@
         <v>0</v>
       </c>
       <c r="V2" s="2">
-        <v>0.119424054</v>
+        <v>0.118831688</v>
       </c>
       <c r="W2" s="2">
-        <v>2.6142163E-2</v>
+        <v>2.6003058999999999E-2</v>
       </c>
       <c r="X2" s="2">
-        <v>0.39101207500000001</v>
+        <v>0.392752088</v>
       </c>
       <c r="Y2" s="2">
-        <v>6.6857687999999998E-2</v>
+        <v>6.6207309000000006E-2</v>
       </c>
       <c r="Z2" s="2">
-        <v>0.119424054</v>
+        <v>0.118831688</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.14657758300000001</v>
+        <v>0.14585749200000001</v>
       </c>
       <c r="AB2" s="2">
-        <v>0.15358554399999999</v>
+        <v>0.154707922</v>
       </c>
       <c r="AC2" s="2">
-        <v>0.30016312699999997</v>
+        <v>0.30056541399999998</v>
       </c>
       <c r="AD2" s="2">
-        <v>3.4161490000000003E-2</v>
+        <v>3.5876234E-2</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.20641384500000001</v>
+        <v>0.205264428</v>
       </c>
       <c r="AF2" s="2">
-        <v>-268.69232183919797</v>
+        <v>-281.40565249999997</v>
       </c>
       <c r="AG2" s="2">
-        <v>-1225.45550675916</v>
+        <v>-1292.3940500000001</v>
       </c>
       <c r="AH2" s="2">
-        <v>0.135033011940347</v>
+        <v>0.135078227</v>
       </c>
       <c r="AI2" s="2">
-        <v>-24.348012707149302</v>
+        <v>-24.46099809</v>
       </c>
       <c r="AJ2" s="2">
-        <v>3.2853185589999998</v>
+        <v>3.26762402</v>
       </c>
       <c r="AK2" s="2">
-        <v>0.15946753499999999</v>
+        <v>0.159207818</v>
       </c>
       <c r="AL2" s="2">
-        <v>0.64439011099999999</v>
+        <v>0.64377572000000005</v>
       </c>
       <c r="AM2" s="2">
-        <v>0.19614235199999999</v>
+        <v>0.19701646</v>
       </c>
       <c r="AN2" s="2">
-        <v>0.130193905</v>
+        <v>0.12924281900000001</v>
       </c>
       <c r="AO2" s="2">
-        <v>4.8476454000000002E-2</v>
+        <v>5.3524804000000002E-2</v>
       </c>
       <c r="AP2" s="2">
-        <v>4.2580101000000002E-2</v>
+        <v>4.1550139E-2</v>
       </c>
       <c r="AQ2" s="2">
-        <v>6.3329927999999994E-2</v>
+        <v>6.4139941000000006E-2</v>
       </c>
       <c r="AR2" s="2">
-        <v>0.2646</v>
+        <v>0.2666</v>
       </c>
       <c r="AS2" s="2">
-        <v>0.38450000000000001</v>
+        <v>0.38150000000000001</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.35089999999999999</v>
+        <v>0.3518</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.32400000000000001</v>
+        <v>0.32440000000000002</v>
       </c>
       <c r="AV2" s="2">
-        <v>0.52580000000000005</v>
+        <v>0.52390000000000003</v>
       </c>
       <c r="AW2" s="2">
-        <v>0.1502</v>
+        <v>0.1517</v>
       </c>
       <c r="AX2">
         <f>G2/$D$2</f>
-        <v>8.5024274866177016E-2</v>
+        <v>8.4009883515707734E-2</v>
       </c>
       <c r="AY2">
         <f t="shared" ref="AY2:BA2" si="0">H2/$D$2</f>
-        <v>1.4813892692642848E-2</v>
+        <v>1.4825273561595482E-2</v>
       </c>
       <c r="AZ2">
         <f t="shared" si="0"/>
-        <v>1.1203784389393751E-3</v>
+        <v>1.1766090128250382E-3</v>
       </c>
       <c r="BA2">
         <f t="shared" si="0"/>
-        <v>4.3570272625420145E-3</v>
+        <v>4.8240969525826568E-3</v>
       </c>
       <c r="BB2">
         <f>M2/D2</f>
-        <v>2.6142163575252085E-2</v>
+        <v>2.6003059183433343E-2</v>
       </c>
       <c r="BC2">
         <f>O2/D2</f>
-        <v>0.39101207518984188</v>
+        <v>0.39275208848099774</v>
       </c>
       <c r="BD2">
         <f>1-(SUM(AX2:BC2))</f>
-        <v>0.47753018797460478</v>
+        <v>0.47640898929285802</v>
       </c>
     </row>
   </sheetData>
@@ -2282,11 +2283,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BD2"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="A1:AW2"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,55 +2470,55 @@
         <v>50</v>
       </c>
       <c r="C2" s="2">
-        <v>1463</v>
+        <v>1554</v>
       </c>
       <c r="D2" s="2">
-        <v>2676</v>
+        <v>2849</v>
       </c>
       <c r="E2" s="2">
-        <v>2340</v>
+        <v>2496</v>
       </c>
       <c r="F2" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="G2" s="2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="H2" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
       </c>
       <c r="J2" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M2" s="2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>1013</v>
+        <v>1096</v>
       </c>
       <c r="P2" s="2">
         <v>8</v>
       </c>
       <c r="Q2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="S2" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2">
         <v>0</v>
@@ -2526,116 +2527,116 @@
         <v>0</v>
       </c>
       <c r="V2" s="2">
-        <v>0.14401709400000001</v>
+        <v>0.14302884599999999</v>
       </c>
       <c r="W2" s="2">
-        <v>3.9985052E-2</v>
+        <v>4.0716040000000002E-2</v>
       </c>
       <c r="X2" s="2">
-        <v>0.37855007400000001</v>
+        <v>0.384696384</v>
       </c>
       <c r="Y2" s="2">
-        <v>0.10562684999999999</v>
+        <v>0.10583941600000001</v>
       </c>
       <c r="Z2" s="2">
-        <v>0.14401709400000001</v>
+        <v>0.14302884599999999</v>
       </c>
       <c r="AA2" s="2">
-        <v>0.18373983699999999</v>
+        <v>0.183168316</v>
       </c>
       <c r="AB2" s="2">
-        <v>0.18632478599999999</v>
+        <v>0.18549679399999999</v>
       </c>
       <c r="AC2" s="2">
-        <v>0.37006462299999998</v>
+        <v>0.36866511000000002</v>
       </c>
       <c r="AD2" s="2">
-        <v>4.2307692000000001E-2</v>
+        <v>4.2467947999999998E-2</v>
       </c>
       <c r="AE2" s="2">
-        <v>0.24449506400000001</v>
+        <v>0.24532374100000001</v>
       </c>
       <c r="AF2" s="2">
-        <v>-19.437343876544599</v>
+        <v>-20.5600014398414</v>
       </c>
       <c r="AG2" s="2">
-        <v>-337.72623862672202</v>
+        <v>-358.97530127266202</v>
       </c>
       <c r="AH2" s="2">
-        <v>0.16749783206761401</v>
+        <v>0.16695898521609301</v>
       </c>
       <c r="AI2" s="2">
-        <v>-3.9377239721538899</v>
+        <v>-4.2106377920381597</v>
       </c>
       <c r="AJ2" s="2">
-        <v>3.581818181</v>
+        <v>3.6506550209999999</v>
       </c>
       <c r="AK2" s="2">
-        <v>0.168316831</v>
+        <v>0.16861826599999999</v>
       </c>
       <c r="AL2" s="2">
-        <v>0.65016501599999998</v>
+        <v>0.65261514399999998</v>
       </c>
       <c r="AM2" s="2">
-        <v>0.18151815099999999</v>
+        <v>0.178766588</v>
       </c>
       <c r="AN2" s="2">
-        <v>6.8181818000000005E-2</v>
+        <v>6.5502183000000005E-2</v>
       </c>
       <c r="AO2" s="2">
-        <v>6.8181818000000005E-2</v>
+        <v>6.9868995000000003E-2</v>
       </c>
       <c r="AP2" s="2">
-        <v>4.4416243000000001E-2</v>
+        <v>4.1866028E-2</v>
       </c>
       <c r="AQ2" s="2">
-        <v>6.2686566999999999E-2</v>
+        <v>6.3400576E-2</v>
       </c>
       <c r="AR2" s="2">
-        <v>0.28889999999999999</v>
+        <v>0.28560000000000002</v>
       </c>
       <c r="AS2" s="2">
-        <v>0.39369999999999999</v>
+        <v>0.39989999999999998</v>
       </c>
       <c r="AT2" s="2">
-        <v>0.31740000000000002</v>
+        <v>0.3145</v>
       </c>
       <c r="AU2" s="2">
-        <v>0.31669999999999998</v>
+        <v>0.317</v>
       </c>
       <c r="AV2" s="2">
-        <v>0.51580000000000004</v>
+        <v>0.51539999999999997</v>
       </c>
       <c r="AW2" s="2">
-        <v>0.16739999999999999</v>
+        <v>0.16769999999999999</v>
       </c>
       <c r="AX2">
         <f>G2/$D$2</f>
-        <v>0.10127055306427504</v>
+        <v>0.10038610038610038</v>
       </c>
       <c r="AY2">
         <f t="shared" ref="AY2:BA2" si="0">H2/$D$2</f>
-        <v>1.7937219730941704E-2</v>
+        <v>1.8252018252018252E-2</v>
       </c>
       <c r="AZ2">
         <f t="shared" si="0"/>
-        <v>1.1210762331838565E-3</v>
+        <v>1.053001053001053E-3</v>
       </c>
       <c r="BA2">
         <f t="shared" si="0"/>
-        <v>5.6053811659192822E-3</v>
+        <v>5.6160056160056157E-3</v>
       </c>
       <c r="BB2">
         <f>M2/D2</f>
-        <v>3.9985052316890882E-2</v>
+        <v>4.0716040716040715E-2</v>
       </c>
       <c r="BC2">
         <f>O2/D2</f>
-        <v>0.37855007473841557</v>
+        <v>0.38469638469638467</v>
       </c>
       <c r="BD2">
         <f>1-(SUM(AX2:BC2))</f>
-        <v>0.45553064275037369</v>
+        <v>0.4492804492804493</v>
       </c>
     </row>
   </sheetData>
@@ -2645,11 +2646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,11 +2708,11 @@
       </c>
       <c r="B2">
         <f>LHPLHH!AX2</f>
-        <v>6.9711538461538464E-2</v>
+        <v>7.5935828877005354E-2</v>
       </c>
       <c r="C2">
         <f>LHPLHH!AY2</f>
-        <v>9.6153846153846159E-3</v>
+        <v>8.5561497326203211E-3</v>
       </c>
       <c r="D2">
         <f>LHPLHH!AZ2</f>
@@ -2719,47 +2720,47 @@
       </c>
       <c r="E2">
         <f>LHPLHH!BA2</f>
-        <v>2.403846153846154E-3</v>
+        <v>2.1390374331550803E-3</v>
       </c>
       <c r="F2">
         <f>LHPLHH!BB2</f>
-        <v>4.3269230769230768E-2</v>
+        <v>3.9572192513368985E-2</v>
       </c>
       <c r="G2">
         <f>LHPLHH!BC2</f>
-        <v>0.46634615384615385</v>
+        <v>0.46737967914438505</v>
       </c>
       <c r="H2">
         <f>LHPLHH!BD2</f>
-        <v>0.40865384615384615</v>
+        <v>0.4064171122994652</v>
       </c>
       <c r="I2">
         <f>RHPLHH!AX2</f>
-        <v>0.10127055306427504</v>
+        <v>0.10038610038610038</v>
       </c>
       <c r="J2">
         <f>RHPLHH!AY2</f>
-        <v>1.7937219730941704E-2</v>
+        <v>1.8252018252018252E-2</v>
       </c>
       <c r="K2">
         <f>RHPLHH!AZ2</f>
-        <v>1.1210762331838565E-3</v>
+        <v>1.053001053001053E-3</v>
       </c>
       <c r="L2">
         <f>RHPLHH!BA2</f>
-        <v>5.6053811659192822E-3</v>
+        <v>5.6160056160056157E-3</v>
       </c>
       <c r="M2">
         <f>RHPLHH!BB2</f>
-        <v>3.9985052316890882E-2</v>
+        <v>4.0716040716040715E-2</v>
       </c>
       <c r="N2">
         <f>RHPLHH!BC2</f>
-        <v>0.37855007473841557</v>
+        <v>0.38469638469638467</v>
       </c>
       <c r="O2">
         <f>RHPLHH!BD2</f>
-        <v>0.45553064275037369</v>
+        <v>0.4492804492804493</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2768,59 +2769,59 @@
       </c>
       <c r="B3">
         <f>LHPRHH!AX2</f>
-        <v>8.9279787587122475E-2</v>
+        <v>8.9397741530740274E-2</v>
       </c>
       <c r="C3">
         <f>LHPRHH!AY2</f>
-        <v>1.8586126783936275E-2</v>
+        <v>1.8193224592220829E-2</v>
       </c>
       <c r="D3">
         <f>LHPRHH!AZ2</f>
-        <v>1.3275804845668769E-3</v>
+        <v>1.2547051442910915E-3</v>
       </c>
       <c r="E3">
         <f>LHPRHH!BA2</f>
-        <v>4.3146365748423501E-3</v>
+        <v>4.3914680050188204E-3</v>
       </c>
       <c r="F3">
         <f>LHPRHH!BB2</f>
-        <v>2.8874875539329572E-2</v>
+        <v>2.7603513174404015E-2</v>
       </c>
       <c r="G3">
         <f>LHPRHH!BC2</f>
-        <v>0.39761035512777965</v>
+        <v>0.40276035131744042</v>
       </c>
       <c r="H3">
         <f>LHPRHH!BD2</f>
-        <v>0.4600066379024228</v>
+        <v>0.45639899623588454</v>
       </c>
       <c r="I3">
         <f>RHPRHH!AX2</f>
-        <v>8.5024274866177016E-2</v>
+        <v>8.4009883515707734E-2</v>
       </c>
       <c r="J3">
         <f>RHPRHH!AY2</f>
-        <v>1.4813892692642848E-2</v>
+        <v>1.4825273561595482E-2</v>
       </c>
       <c r="K3">
         <f>RHPRHH!AZ2</f>
-        <v>1.1203784389393751E-3</v>
+        <v>1.1766090128250382E-3</v>
       </c>
       <c r="L3">
         <f>RHPRHH!BA2</f>
-        <v>4.3570272625420145E-3</v>
+        <v>4.8240969525826568E-3</v>
       </c>
       <c r="M3">
         <f>RHPRHH!BB2</f>
-        <v>2.6142163575252085E-2</v>
+        <v>2.6003059183433343E-2</v>
       </c>
       <c r="N3">
         <f>RHPRHH!BC2</f>
-        <v>0.39101207518984188</v>
+        <v>0.39275208848099774</v>
       </c>
       <c r="O3">
         <f>RHPRHH!BD2</f>
-        <v>0.47753018797460478</v>
+        <v>0.47640898929285802</v>
       </c>
     </row>
   </sheetData>
